--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_3_10.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_3_10.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-754372.7651461377</v>
+        <v>-756260.3466625394</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800621</v>
+        <v>2264668.837800622</v>
       </c>
     </row>
     <row r="8">
@@ -659,25 +659,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>181.9787044875758</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>118.9257265271371</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,10 +704,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
@@ -716,7 +716,7 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -725,7 +725,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -829,16 +829,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>83.97130619250075</v>
       </c>
       <c r="I4" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -859,13 +859,13 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -874,7 +874,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>107.8232201722642</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -902,19 +902,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>13.6629055242496</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,16 +941,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>30.78503516161503</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -959,10 +959,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1054,7 +1054,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1069,13 +1069,13 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>33.12622810974133</v>
+        <v>134.9474759313288</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1108,7 +1108,7 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1120,7 +1120,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>163.6300608022002</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,28 +1178,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>95.04536685828211</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1230,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1297,22 +1297,22 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>18.3768222575565</v>
+        <v>42.98425264020179</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1354,10 +1354,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1388,7 +1388,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1467,7 +1467,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1534,16 +1534,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>95.02525064967651</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>131.0861838204984</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -1594,7 +1594,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634819</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1625,7 +1625,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274068</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1704,7 +1704,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1734,7 +1734,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>138.5070438670632</v>
+        <v>138.5070438670631</v>
       </c>
       <c r="T15" t="n">
         <v>192.9654699154601</v>
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -1771,19 +1771,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>118.8184004271349</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1828,7 +1828,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>200.7107928165333</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1859,10 +1859,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H17" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113183</v>
       </c>
       <c r="I17" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051975</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1941,7 +1941,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014446</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2008,19 +2008,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>132.696879225924</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,25 +2047,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>258.8975118102031</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2099,7 +2099,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2236,10 +2236,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2248,7 +2248,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2284,19 +2284,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>210.9685212521337</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2305,7 +2305,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>212.4576348641825</v>
       </c>
     </row>
     <row r="23">
@@ -2336,7 +2336,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274068</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2445,7 +2445,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>138.5070438670631</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T24" t="n">
         <v>192.9654699154601</v>
@@ -2473,19 +2473,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2524,25 +2524,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>115.5269768002181</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>56.47851762226233</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2564,7 +2564,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417112</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
         <v>411.9645167896915</v>
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2761,7 +2761,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>115.5269768002171</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
         <v>221.5475610583892</v>
@@ -2773,7 +2773,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>204.1291651532058</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2889,7 +2889,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2947,7 +2947,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>18.92077583357825</v>
+        <v>124.6287235533803</v>
       </c>
       <c r="C31" t="n">
         <v>112.0435644700708</v>
@@ -2956,19 +2956,19 @@
         <v>93.41221638965531</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>91.23070601801213</v>
       </c>
       <c r="F31" t="n">
-        <v>90.2177913943742</v>
+        <v>39.08079428425702</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>111.2903118348206</v>
       </c>
       <c r="H31" t="n">
-        <v>93.71057173897908</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>55.21598883571494</v>
+        <v>55.21598883571492</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.76109577523575</v>
+        <v>54.76109577523573</v>
       </c>
       <c r="S31" t="n">
         <v>142.7175533550462</v>
@@ -3016,7 +3016,7 @@
         <v>170.5063987604801</v>
       </c>
       <c r="Y31" t="n">
-        <v>163.3813967235378</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3187,25 +3187,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857169</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E34" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463181</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3253,7 +3253,7 @@
         <v>157.5777652593965</v>
       </c>
       <c r="Y34" t="n">
-        <v>150.4527632224541</v>
+        <v>150.452763222455</v>
       </c>
     </row>
     <row r="35">
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634811</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3424,25 +3424,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C37" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857169</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E37" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G37" t="n">
         <v>98.36167833373693</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3515,7 +3515,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>411.9645167896912</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H38" t="n">
         <v>305.2872491113177</v>
@@ -3661,25 +3661,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898715</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857168</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E40" t="n">
-        <v>78.30207251692849</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329056</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G40" t="n">
-        <v>98.3616783337369</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789545</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3758,7 +3758,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3837,7 +3837,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C43" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898721</v>
       </c>
       <c r="D43" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857173</v>
       </c>
       <c r="E43" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692855</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329062</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373696</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789546</v>
+        <v>80.7819382378955</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463136</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415216</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -3955,16 +3955,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V43" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W43" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X43" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y43" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="44">
@@ -4135,25 +4135,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C46" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D46" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E46" t="n">
-        <v>78.30207251692852</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G46" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I46" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4304,37 +4304,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1167.455337753612</v>
+        <v>877.1727159660345</v>
       </c>
       <c r="C2" t="n">
-        <v>1167.455337753612</v>
+        <v>508.2101990256228</v>
       </c>
       <c r="D2" t="n">
-        <v>809.1896391468615</v>
+        <v>508.2101990256228</v>
       </c>
       <c r="E2" t="n">
-        <v>809.1896391468615</v>
+        <v>508.2101990256228</v>
       </c>
       <c r="F2" t="n">
-        <v>625.3727659270879</v>
+        <v>501.2646982764193</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2478.514423990285</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2224.752638628377</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>1893.689751284806</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="W2" t="n">
-        <v>1540.921096014692</v>
+        <v>1640.777806202926</v>
       </c>
       <c r="X2" t="n">
-        <v>1167.455337753612</v>
+        <v>1267.312047941846</v>
       </c>
       <c r="Y2" t="n">
-        <v>1167.455337753612</v>
+        <v>877.1727159660345</v>
       </c>
     </row>
     <row r="3">
@@ -4398,10 +4398,10 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4410,13 +4410,13 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417901</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N3" t="n">
         <v>1748.695370517453</v>
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>404.9282174162494</v>
+        <v>444.0275768541693</v>
       </c>
       <c r="C4" t="n">
-        <v>404.9282174162494</v>
+        <v>275.0913939262624</v>
       </c>
       <c r="D4" t="n">
-        <v>404.9282174162494</v>
+        <v>275.0913939262624</v>
       </c>
       <c r="E4" t="n">
-        <v>404.9282174162494</v>
+        <v>275.0913939262624</v>
       </c>
       <c r="F4" t="n">
-        <v>404.9282174162494</v>
+        <v>275.0913939262624</v>
       </c>
       <c r="G4" t="n">
-        <v>235.9284171545818</v>
+        <v>275.0913939262624</v>
       </c>
       <c r="H4" t="n">
-        <v>235.9284171545818</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I4" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4492,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S4" t="n">
-        <v>513.8405610245972</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T4" t="n">
-        <v>513.8405610245972</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="U4" t="n">
-        <v>513.8405610245972</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="V4" t="n">
-        <v>404.9282174162494</v>
+        <v>444.0275768541693</v>
       </c>
       <c r="W4" t="n">
-        <v>404.9282174162494</v>
+        <v>444.0275768541693</v>
       </c>
       <c r="X4" t="n">
-        <v>404.9282174162494</v>
+        <v>444.0275768541693</v>
       </c>
       <c r="Y4" t="n">
-        <v>404.9282174162494</v>
+        <v>444.0275768541693</v>
       </c>
     </row>
     <row r="5">
@@ -4541,37 +4541,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1194.683768698139</v>
+        <v>1763.586886263858</v>
       </c>
       <c r="C5" t="n">
-        <v>825.7212517577275</v>
+        <v>1394.624369323446</v>
       </c>
       <c r="D5" t="n">
-        <v>467.455553150977</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="E5" t="n">
-        <v>81.66730055273274</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F5" t="n">
-        <v>67.86638588177355</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2642.120401548716</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U5" t="n">
-        <v>2642.120401548716</v>
+        <v>2447.418428877543</v>
       </c>
       <c r="V5" t="n">
-        <v>2311.057514205145</v>
+        <v>2116.355541533972</v>
       </c>
       <c r="W5" t="n">
-        <v>1958.288858935031</v>
+        <v>1763.586886263858</v>
       </c>
       <c r="X5" t="n">
-        <v>1584.823100673951</v>
+        <v>1763.586886263858</v>
       </c>
       <c r="Y5" t="n">
-        <v>1194.683768698139</v>
+        <v>1763.586886263858</v>
       </c>
     </row>
     <row r="6">
@@ -4635,10 +4635,10 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
@@ -4662,7 +4662,7 @@
         <v>2231.815593035061</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018222</v>
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>290.8087152951862</v>
+        <v>359.1897464970883</v>
       </c>
       <c r="C7" t="n">
-        <v>290.8087152951862</v>
+        <v>190.2535635691814</v>
       </c>
       <c r="D7" t="n">
-        <v>290.8087152951862</v>
+        <v>190.2535635691814</v>
       </c>
       <c r="E7" t="n">
-        <v>290.8087152951862</v>
+        <v>190.2535635691814</v>
       </c>
       <c r="F7" t="n">
-        <v>290.8087152951862</v>
+        <v>190.2535635691814</v>
       </c>
       <c r="G7" t="n">
-        <v>290.8087152951862</v>
+        <v>190.2535635691814</v>
       </c>
       <c r="H7" t="n">
-        <v>133.0603427277163</v>
+        <v>190.2535635691814</v>
       </c>
       <c r="I7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4729,46 +4729,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>579.9823256406182</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="S7" t="n">
-        <v>579.9823256406182</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="T7" t="n">
-        <v>579.9823256406182</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="U7" t="n">
-        <v>290.8087152951862</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="V7" t="n">
-        <v>290.8087152951862</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="W7" t="n">
-        <v>290.8087152951862</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="X7" t="n">
-        <v>290.8087152951862</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="Y7" t="n">
-        <v>290.8087152951862</v>
+        <v>359.1897464970883</v>
       </c>
     </row>
     <row r="8">
@@ -4778,43 +4778,43 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1152.640269254486</v>
+        <v>1995.909162857192</v>
       </c>
       <c r="C8" t="n">
-        <v>783.6777523140745</v>
+        <v>1626.94664591678</v>
       </c>
       <c r="D8" t="n">
-        <v>783.6777523140745</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E8" t="n">
-        <v>783.6777523140745</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F8" t="n">
-        <v>372.6918475244669</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4826,28 +4826,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2247.308246834948</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U8" t="n">
-        <v>2247.308246834948</v>
+        <v>2382.509002921313</v>
       </c>
       <c r="V8" t="n">
-        <v>1916.245359491378</v>
+        <v>2382.509002921313</v>
       </c>
       <c r="W8" t="n">
-        <v>1916.245359491378</v>
+        <v>2382.509002921313</v>
       </c>
       <c r="X8" t="n">
-        <v>1542.779601230298</v>
+        <v>2382.509002921313</v>
       </c>
       <c r="Y8" t="n">
-        <v>1152.640269254486</v>
+        <v>2382.509002921313</v>
       </c>
     </row>
     <row r="9">
@@ -4857,73 +4857,73 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W9" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X9" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y9" t="n">
         <v>1156.713312237151</v>
@@ -4936,22 +4936,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>728.1289842064342</v>
+        <v>279.3468541648867</v>
       </c>
       <c r="C10" t="n">
-        <v>728.1289842064342</v>
+        <v>279.3468541648867</v>
       </c>
       <c r="D10" t="n">
-        <v>728.1289842064342</v>
+        <v>279.3468541648867</v>
       </c>
       <c r="E10" t="n">
-        <v>709.5665374816297</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="F10" t="n">
-        <v>562.6765899837193</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="G10" t="n">
-        <v>393.6767897220517</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="H10" t="n">
         <v>235.9284171545819</v>
@@ -5002,10 +5002,10 @@
         <v>728.1289842064342</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064342</v>
+        <v>500.1394333084169</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064342</v>
+        <v>279.3468541648867</v>
       </c>
     </row>
     <row r="11">
@@ -5033,7 +5033,7 @@
         <v>488.1932370805466</v>
       </c>
       <c r="H11" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I11" t="n">
         <v>97.21709146028562</v>
@@ -5042,7 +5042,7 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
@@ -5057,7 +5057,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.62743720783</v>
@@ -5124,19 +5124,19 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L12" t="n">
-        <v>921.1936903636249</v>
+        <v>1099.417155020476</v>
       </c>
       <c r="M12" t="n">
-        <v>1228.513823643586</v>
+        <v>1406.737288300438</v>
       </c>
       <c r="N12" t="n">
-        <v>1558.376451307619</v>
+        <v>1736.599915964471</v>
       </c>
       <c r="O12" t="n">
-        <v>1837.916516526316</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P12" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>807.0580565471719</v>
+        <v>716.85552216808</v>
       </c>
       <c r="C13" t="n">
-        <v>638.121873619265</v>
+        <v>547.9193392401731</v>
       </c>
       <c r="D13" t="n">
-        <v>488.0052342069292</v>
+        <v>397.8026998278374</v>
       </c>
       <c r="E13" t="n">
-        <v>340.0921406245361</v>
+        <v>397.8026998278374</v>
       </c>
       <c r="F13" t="n">
-        <v>193.2021931266258</v>
+        <v>397.8026998278374</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028584</v>
+        <v>229.627378147658</v>
       </c>
       <c r="H13" t="n">
         <v>97.21709146028584</v>
@@ -5221,28 +5221,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T13" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U13" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="V13" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="W13" t="n">
-        <v>1209.499100520942</v>
+        <v>898.5039869983198</v>
       </c>
       <c r="X13" t="n">
-        <v>1209.499100520942</v>
+        <v>898.5039869983198</v>
       </c>
       <c r="Y13" t="n">
-        <v>988.7065213774116</v>
+        <v>898.5039869983198</v>
       </c>
     </row>
     <row r="14">
@@ -5252,19 +5252,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155881</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
         <v>488.1932370805469</v>
@@ -5273,55 +5273,55 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J14" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643322</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899125</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207828</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="15">
@@ -5352,25 +5352,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126481</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K15" t="n">
-        <v>674.4285624571608</v>
+        <v>674.4285624571611</v>
       </c>
       <c r="L15" t="n">
-        <v>921.1936903636247</v>
+        <v>921.1936903636254</v>
       </c>
       <c r="M15" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N15" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O15" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P15" t="n">
         <v>2328.464088060424</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>981.5095496229239</v>
+        <v>825.112461128548</v>
       </c>
       <c r="C16" t="n">
-        <v>812.5733666950171</v>
+        <v>656.1762782006411</v>
       </c>
       <c r="D16" t="n">
-        <v>662.4567272826813</v>
+        <v>506.0596387883054</v>
       </c>
       <c r="E16" t="n">
-        <v>514.5436337002882</v>
+        <v>506.0596387883054</v>
       </c>
       <c r="F16" t="n">
-        <v>367.6536862023778</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="G16" t="n">
-        <v>247.6350999123425</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028583</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799367</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471196</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O16" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="U16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="V16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="W16" t="n">
-        <v>1209.499100520941</v>
+        <v>1209.499100520943</v>
       </c>
       <c r="X16" t="n">
-        <v>981.5095496229239</v>
+        <v>1006.760925958788</v>
       </c>
       <c r="Y16" t="n">
-        <v>981.5095496229239</v>
+        <v>1006.760925958788</v>
       </c>
     </row>
     <row r="17">
@@ -5492,67 +5492,67 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D17" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G17" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805476</v>
       </c>
       <c r="H17" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643322</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V17" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X17" t="n">
         <v>3205.060556590537</v>
@@ -5589,25 +5589,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K18" t="n">
-        <v>287.7778528277031</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L18" t="n">
-        <v>745.6707680030245</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M18" t="n">
-        <v>1514.038914395486</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N18" t="n">
-        <v>1843.901542059518</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O18" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P18" t="n">
         <v>2328.464088060424</v>
@@ -5647,46 +5647,46 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>809.2953582963252</v>
+        <v>265.3924131404654</v>
       </c>
       <c r="C19" t="n">
-        <v>809.2953582963252</v>
+        <v>265.3924131404654</v>
       </c>
       <c r="D19" t="n">
-        <v>809.2953582963252</v>
+        <v>265.3924131404654</v>
       </c>
       <c r="E19" t="n">
-        <v>661.382264713932</v>
+        <v>265.3924131404654</v>
       </c>
       <c r="F19" t="n">
-        <v>527.3450129705744</v>
+        <v>265.3924131404654</v>
       </c>
       <c r="G19" t="n">
-        <v>359.169691290395</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241955</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688069</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799361</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471188</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N19" t="n">
-        <v>1049.608084974666</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O19" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
         <v>1460.082827585746</v>
@@ -5695,28 +5695,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1387.841167119728</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>1387.841167119728</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U19" t="n">
-        <v>1098.712528333286</v>
+        <v>1037.48362228133</v>
       </c>
       <c r="V19" t="n">
-        <v>1098.712528333286</v>
+        <v>782.7991340754434</v>
       </c>
       <c r="W19" t="n">
-        <v>809.2953582963252</v>
+        <v>493.3819640384827</v>
       </c>
       <c r="X19" t="n">
-        <v>809.2953582963252</v>
+        <v>265.3924131404654</v>
       </c>
       <c r="Y19" t="n">
-        <v>809.2953582963252</v>
+        <v>265.3924131404654</v>
       </c>
     </row>
     <row r="20">
@@ -5726,37 +5726,37 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G20" t="n">
         <v>488.1932370805469</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823791</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514095</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
@@ -5768,34 +5768,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="21">
@@ -5826,25 +5826,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126481</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K21" t="n">
-        <v>674.4285624571608</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636247</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N21" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O21" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P21" t="n">
         <v>2328.464088060424</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.21709146028584</v>
+        <v>413.0432218861033</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581963</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581963</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581963</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241956</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O22" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q22" t="n">
         <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S22" t="n">
-        <v>1298.996260473454</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T22" t="n">
-        <v>1075.21084526296</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U22" t="n">
-        <v>862.1113288466634</v>
+        <v>1098.712528333286</v>
       </c>
       <c r="V22" t="n">
-        <v>607.4268406407765</v>
+        <v>1098.712528333286</v>
       </c>
       <c r="W22" t="n">
-        <v>318.0096706038159</v>
+        <v>809.2953582963254</v>
       </c>
       <c r="X22" t="n">
-        <v>318.0096706038159</v>
+        <v>809.2953582963254</v>
       </c>
       <c r="Y22" t="n">
-        <v>97.21709146028584</v>
+        <v>594.691686716343</v>
       </c>
     </row>
     <row r="23">
@@ -5963,22 +5963,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H23" t="n">
         <v>179.8222783822462</v>
@@ -5987,10 +5987,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514087</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795207</v>
@@ -5999,40 +5999,40 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6066,13 +6066,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
         <v>674.428562457161</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636253</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M24" t="n">
         <v>1228.513823643587</v>
@@ -6121,40 +6121,40 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028584</v>
+        <v>560.9563154684964</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028584</v>
+        <v>392.0201325405894</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028584</v>
+        <v>392.0201325405894</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581963</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241959</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688074</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799368</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471195</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6166,31 +6166,31 @@
         <v>1460.082827585747</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1382.222354598087</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T25" t="n">
-        <v>1158.436939387592</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U25" t="n">
-        <v>869.3083006011507</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="V25" t="n">
-        <v>614.6238123952638</v>
+        <v>1020.446367141521</v>
       </c>
       <c r="W25" t="n">
-        <v>325.2066423583032</v>
+        <v>1020.446367141521</v>
       </c>
       <c r="X25" t="n">
-        <v>97.21709146028584</v>
+        <v>963.3973594422664</v>
       </c>
       <c r="Y25" t="n">
-        <v>97.21709146028584</v>
+        <v>742.6047802987362</v>
       </c>
     </row>
     <row r="26">
@@ -6212,10 +6212,10 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G26" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H26" t="n">
         <v>179.8222783822462</v>
@@ -6227,46 +6227,46 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R26" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y26" t="n">
         <v>2814.921224614724</v>
@@ -6291,13 +6291,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G27" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I27" t="n">
         <v>97.21709146028584</v>
@@ -6306,25 +6306,25 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M27" t="n">
         <v>1228.513823643587</v>
       </c>
       <c r="N27" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O27" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P27" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q27" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.2170914602858</v>
       </c>
       <c r="C28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.2170914602858</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.2170914602858</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.2170914602858</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028581</v>
+        <v>97.2170914602858</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028581</v>
+        <v>97.2170914602858</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028581</v>
+        <v>97.2170914602858</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028581</v>
+        <v>97.2170914602858</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241957</v>
@@ -6388,10 +6388,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6400,25 +6400,25 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S28" t="n">
-        <v>1382.222354598087</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T28" t="n">
-        <v>1158.436939387592</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U28" t="n">
-        <v>869.3083006011507</v>
+        <v>786.0822064765191</v>
       </c>
       <c r="V28" t="n">
-        <v>614.6238123952637</v>
+        <v>531.3977182706323</v>
       </c>
       <c r="W28" t="n">
         <v>325.2066423583032</v>
@@ -6476,13 +6476,13 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R29" t="n">
         <v>4860.854573014292</v>
@@ -6528,13 +6528,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G30" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H30" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I30" t="n">
         <v>97.21709146028584</v>
@@ -6543,19 +6543,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M30" t="n">
         <v>1228.513823643587</v>
       </c>
       <c r="N30" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O30" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P30" t="n">
         <v>2317.834075963124</v>
@@ -6595,37 +6595,37 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>546.3081347216943</v>
+        <v>604.5641438163775</v>
       </c>
       <c r="C31" t="n">
-        <v>433.1328170751581</v>
+        <v>491.3888261698414</v>
       </c>
       <c r="D31" t="n">
-        <v>338.7770429441932</v>
+        <v>397.0330520388764</v>
       </c>
       <c r="E31" t="n">
-        <v>338.7770429441932</v>
+        <v>304.880823737854</v>
       </c>
       <c r="F31" t="n">
-        <v>247.6479607276536</v>
+        <v>265.4052739557762</v>
       </c>
       <c r="G31" t="n">
-        <v>247.6479607276536</v>
+        <v>152.9908175569676</v>
       </c>
       <c r="H31" t="n">
         <v>152.9908175569676</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J31" t="n">
         <v>164.2510079864672</v>
       </c>
       <c r="K31" t="n">
-        <v>369.0876362933501</v>
+        <v>369.0876362933502</v>
       </c>
       <c r="L31" t="n">
-        <v>671.4509053667508</v>
+        <v>671.4509053667509</v>
       </c>
       <c r="M31" t="n">
         <v>997.6688721962053</v>
@@ -6640,7 +6640,7 @@
         <v>1842.641396021647</v>
       </c>
       <c r="Q31" t="n">
-        <v>1936.126063056075</v>
+        <v>1936.126063056074</v>
       </c>
       <c r="R31" t="n">
         <v>1880.811824899271</v>
@@ -6658,13 +6658,13 @@
         <v>1136.336733737483</v>
       </c>
       <c r="W31" t="n">
-        <v>902.6804289818924</v>
+        <v>902.6804289818931</v>
       </c>
       <c r="X31" t="n">
-        <v>730.4517433652458</v>
+        <v>730.4517433652464</v>
       </c>
       <c r="Y31" t="n">
-        <v>565.4200295030864</v>
+        <v>730.4517433652464</v>
       </c>
     </row>
     <row r="32">
@@ -6677,40 +6677,40 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155884</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
@@ -6731,16 +6731,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6795,10 +6795,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q33" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6832,28 +6832,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108335</v>
+        <v>659.4602391108332</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229676</v>
+        <v>559.3441472229673</v>
       </c>
       <c r="D34" t="n">
-        <v>478.047598850673</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E34" t="n">
-        <v>398.954596308321</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504516</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G34" t="n">
-        <v>221.5295092103133</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H34" t="n">
-        <v>139.9315917982978</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
         <v>177.05035515254</v>
@@ -6877,7 +6877,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q34" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R34" t="n">
         <v>1996.265827986523</v>
@@ -6895,13 +6895,13 @@
         <v>1304.027639859417</v>
       </c>
       <c r="W34" t="n">
-        <v>1083.430560862497</v>
+        <v>1083.430560862498</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045212</v>
+        <v>924.2611010045215</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010321</v>
+        <v>772.2886129010318</v>
       </c>
     </row>
     <row r="35">
@@ -6911,28 +6911,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155884</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J35" t="n">
         <v>365.8813331823787</v>
@@ -6947,40 +6947,40 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T35" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="36">
@@ -7011,7 +7011,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J36" t="n">
         <v>263.5382936126482</v>
@@ -7032,10 +7032,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q36" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7069,19 +7069,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108327</v>
+        <v>659.4602391108333</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229669</v>
+        <v>559.3441472229672</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506722</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083202</v>
+        <v>398.9545963083205</v>
       </c>
       <c r="F37" t="n">
-        <v>320.884739850451</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G37" t="n">
         <v>221.5295092103129</v>
@@ -7093,13 +7093,13 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254958</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L37" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M37" t="n">
         <v>1048.866260860496</v>
@@ -7114,7 +7114,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q37" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R37" t="n">
         <v>1996.265827986523</v>
@@ -7129,16 +7129,16 @@
         <v>1489.892037025262</v>
       </c>
       <c r="V37" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W37" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045205</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010313</v>
+        <v>772.2886129010319</v>
       </c>
     </row>
     <row r="38">
@@ -7154,37 +7154,37 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155886</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G38" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J38" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
@@ -7251,25 +7251,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>534.5429807341673</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N39" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O39" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q39" t="n">
         <v>2623.573505376138</v>
@@ -7306,55 +7306,55 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108332</v>
+        <v>659.4602391108324</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229674</v>
+        <v>559.3441472229665</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506727</v>
+        <v>478.0475988506719</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083207</v>
+        <v>398.9545963083199</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504514</v>
+        <v>320.8847398504506</v>
       </c>
       <c r="G40" t="n">
-        <v>221.5295092103123</v>
+        <v>221.5295092103128</v>
       </c>
       <c r="H40" t="n">
-        <v>139.9315917982967</v>
+        <v>139.9315917982972</v>
       </c>
       <c r="I40" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
-        <v>177.0503551525402</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254959</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M40" t="n">
-        <v>1048.866260860497</v>
+        <v>1048.866260860496</v>
       </c>
       <c r="N40" t="n">
         <v>1386.860941116388</v>
       </c>
       <c r="O40" t="n">
-        <v>1688.18649035013</v>
+        <v>1688.186490350129</v>
       </c>
       <c r="P40" t="n">
-        <v>1932.236826184157</v>
+        <v>1932.236826184156</v>
       </c>
       <c r="Q40" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R40" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986522</v>
       </c>
       <c r="S40" t="n">
         <v>1865.165908942116</v>
@@ -7369,13 +7369,13 @@
         <v>1304.027639859416</v>
       </c>
       <c r="W40" t="n">
-        <v>1083.430560862497</v>
+        <v>1083.430560862496</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045208</v>
+        <v>924.2611010045201</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010318</v>
+        <v>772.288612901031</v>
       </c>
     </row>
     <row r="41">
@@ -7385,7 +7385,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C41" t="n">
         <v>2059.358867610191</v>
@@ -7394,25 +7394,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H41" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795207</v>
@@ -7445,16 +7445,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W41" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="42">
@@ -7497,7 +7497,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N42" t="n">
         <v>1558.376451307619</v>
@@ -7506,10 +7506,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q42" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108328</v>
+        <v>659.4602391108333</v>
       </c>
       <c r="C43" t="n">
-        <v>559.344147222967</v>
+        <v>559.3441472229674</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506723</v>
+        <v>478.0475988506727</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083202</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F43" t="n">
-        <v>320.884739850451</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G43" t="n">
-        <v>221.5295092103126</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H43" t="n">
-        <v>139.9315917982969</v>
+        <v>139.9315917982972</v>
       </c>
       <c r="I43" t="n">
         <v>97.21709146028584</v>
@@ -7570,7 +7570,7 @@
         <v>177.05035515254</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254956</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L43" t="n">
         <v>709.8489468649691</v>
@@ -7600,19 +7600,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U43" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V43" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W43" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045205</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010318</v>
       </c>
     </row>
     <row r="44">
@@ -7634,46 +7634,46 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155893</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822463</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T44" t="n">
         <v>4515.972600141868</v>
@@ -7722,7 +7722,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
         <v>263.5382936126482</v>
@@ -7743,10 +7743,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q45" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7780,31 +7780,31 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108328</v>
+        <v>659.4602391108332</v>
       </c>
       <c r="C46" t="n">
-        <v>559.344147222967</v>
+        <v>559.3441472229673</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506723</v>
+        <v>478.0475988506727</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083202</v>
+        <v>398.9545963083207</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504509</v>
+        <v>320.8847398504514</v>
       </c>
       <c r="G46" t="n">
-        <v>221.5295092103126</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H46" t="n">
-        <v>139.9315917982969</v>
+        <v>139.9315917982972</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K46" t="n">
         <v>394.6863306254957</v>
@@ -7816,7 +7816,7 @@
         <v>1048.866260860496</v>
       </c>
       <c r="N46" t="n">
-        <v>1386.860941116387</v>
+        <v>1386.860941116388</v>
       </c>
       <c r="O46" t="n">
         <v>1688.186490350129</v>
@@ -7828,28 +7828,28 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R46" t="n">
-        <v>1996.265827986522</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S46" t="n">
-        <v>1865.165908942115</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T46" t="n">
-        <v>1710.200584771662</v>
+        <v>1710.200584771663</v>
       </c>
       <c r="U46" t="n">
         <v>1489.892037025262</v>
       </c>
       <c r="V46" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W46" t="n">
-        <v>1083.430560862496</v>
+        <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.26110100452</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010318</v>
       </c>
     </row>
   </sheetData>
@@ -8058,13 +8058,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>145.029416914201</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>346.2692436516221</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
         <v>479.3423743435536</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270193</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8310,10 +8310,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>275.0442842992665</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951776</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8541,7 +8541,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451761</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8772,7 +8772,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>180.0237016735871</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -8784,13 +8784,13 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>288.4091825776754</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9021,13 +9021,13 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>288.4091825776759</v>
+        <v>288.4091825776741</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.7842838544522</v>
+        <v>34.78428385445213</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9240,16 +9240,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>213.2603911806641</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -9258,13 +9258,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445221</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9422,7 +9422,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298298</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9495,13 +9495,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>288.4091825776759</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.7842838544522</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9659,7 +9659,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298105</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9732,13 +9732,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>288.4091825776741</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445213</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9896,7 +9896,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298105</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9969,13 +9969,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>277.6717966208064</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10118,7 +10118,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
-        <v>449.5135334928324</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N29" t="n">
         <v>437.3469244119842</v>
@@ -10133,7 +10133,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298105</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10206,7 +10206,7 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>277.6717966208064</v>
+        <v>277.6717966208061</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
@@ -10370,7 +10370,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10443,13 +10443,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>277.6717966208064</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10592,10 +10592,10 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928324</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N35" t="n">
-        <v>437.3469244119842</v>
+        <v>437.3469244119852</v>
       </c>
       <c r="O35" t="n">
         <v>380.8001812627454</v>
@@ -10680,13 +10680,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>277.6717966208064</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10899,28 +10899,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>409.7003683229582</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>34.78428385445218</v>
@@ -11154,13 +11154,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>277.6717966208067</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11303,7 +11303,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928336</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
@@ -11391,13 +11391,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>277.6717966208067</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23422,16 +23422,16 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>71.46831781370108</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>17.82764454703769</v>
       </c>
       <c r="I13" t="n">
         <v>110.419245464272</v>
@@ -23461,10 +23461,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>221.5475610583892</v>
@@ -23482,7 +23482,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23650,7 +23650,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23659,19 +23659,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>47.67516803624267</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23716,7 +23716,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>24.99886257250389</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23896,19 +23896,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>12.72416879700724</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675362</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,25 +23935,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>27.33984058837431</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -24124,10 +24124,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24136,13 +24136,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>148.9138283675362</v>
       </c>
       <c r="I22" t="n">
         <v>110.419245464272</v>
@@ -24172,19 +24172,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836033</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>75.26883114644369</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>6.127018487912324</v>
       </c>
     </row>
     <row r="23">
@@ -24361,25 +24361,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>148.9138283675362</v>
       </c>
       <c r="I25" t="n">
         <v>110.419245464272</v>
@@ -24412,25 +24412,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>82.39383318338511</v>
+        <v>197.9208099836033</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>169.2311377667749</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24649,7 +24649,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>82.39383318338612</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24661,7 +24661,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>82.3938331833852</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24835,7 +24835,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>105.707947719802</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24844,16 +24844,16 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>91.23070601801213</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>51.13699711011718</v>
       </c>
       <c r="G31" t="n">
-        <v>111.2903118348205</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>93.71057173897908</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>163.3813967235378</v>
       </c>
     </row>
     <row r="32">
@@ -25093,7 +25093,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>-4.973799150320701e-13</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25141,7 +25141,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>-9.003997547551989e-13</v>
       </c>
     </row>
     <row r="35">
@@ -26311,19 +26311,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>205260.4424660708</v>
+        <v>205260.4424660707</v>
       </c>
       <c r="C2" t="n">
         <v>205260.4424660708</v>
       </c>
       <c r="D2" t="n">
-        <v>205260.4424660707</v>
+        <v>205260.4424660708</v>
       </c>
       <c r="E2" t="n">
         <v>195514.5298688544</v>
       </c>
       <c r="F2" t="n">
-        <v>195514.5298688545</v>
+        <v>195514.5298688544</v>
       </c>
       <c r="G2" t="n">
         <v>195514.5298688545</v>
@@ -26335,7 +26335,7 @@
         <v>195514.5298688545</v>
       </c>
       <c r="J2" t="n">
-        <v>195514.5298688544</v>
+        <v>195514.5298688545</v>
       </c>
       <c r="K2" t="n">
         <v>203411.0686726353</v>
@@ -26344,7 +26344,7 @@
         <v>205260.4424660711</v>
       </c>
       <c r="M2" t="n">
-        <v>205260.4424660711</v>
+        <v>205260.442466071</v>
       </c>
       <c r="N2" t="n">
         <v>205260.4424660711</v>
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26375,7 +26375,7 @@
         <v>525160.0364768961</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.343873079383556e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26384,16 +26384,16 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>4.278882670405437e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925927</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
-        <v>44162.60530284564</v>
+        <v>44162.6053028456</v>
       </c>
       <c r="L3" t="n">
-        <v>10342.9068008669</v>
+        <v>10342.90680086689</v>
       </c>
       <c r="M3" t="n">
         <v>134801.0152338372</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>44162.60530284562</v>
+        <v>44162.60530284564</v>
       </c>
     </row>
     <row r="4">
@@ -26427,34 +26427,34 @@
         <v>22174.60758687071</v>
       </c>
       <c r="F4" t="n">
+        <v>22174.60758687065</v>
+      </c>
+      <c r="G4" t="n">
+        <v>22174.60758687068</v>
+      </c>
+      <c r="H4" t="n">
         <v>22174.60758687071</v>
-      </c>
-      <c r="G4" t="n">
-        <v>22174.60758687078</v>
-      </c>
-      <c r="H4" t="n">
-        <v>22174.60758687072</v>
       </c>
       <c r="I4" t="n">
         <v>22174.6075868707</v>
       </c>
       <c r="J4" t="n">
-        <v>22174.60758687072</v>
+        <v>22174.6075868707</v>
       </c>
       <c r="K4" t="n">
-        <v>40339.23010106724</v>
+        <v>40339.23010106723</v>
       </c>
       <c r="L4" t="n">
         <v>44593.39482819119</v>
       </c>
       <c r="M4" t="n">
+        <v>44593.39482819117</v>
+      </c>
+      <c r="N4" t="n">
         <v>44593.39482819119</v>
       </c>
-      <c r="N4" t="n">
-        <v>44593.39482819121</v>
-      </c>
       <c r="O4" t="n">
-        <v>44593.39482819119</v>
+        <v>44593.3948281912</v>
       </c>
       <c r="P4" t="n">
         <v>44593.39482819119</v>
@@ -26476,16 +26476,16 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
         <v>91987.32594871664</v>
@@ -26500,7 +26500,7 @@
         <v>97715.10582002539</v>
       </c>
       <c r="M5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.1058200254</v>
       </c>
       <c r="N5" t="n">
         <v>97715.10582002539</v>
@@ -26509,7 +26509,7 @@
         <v>97715.10582002539</v>
       </c>
       <c r="P5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-633199.3825984077</v>
+        <v>-633199.3825984076</v>
       </c>
       <c r="C6" t="n">
-        <v>-43231.50338386308</v>
+        <v>-43231.50338386305</v>
       </c>
       <c r="D6" t="n">
-        <v>-43231.50338386316</v>
+        <v>-43231.50338386305</v>
       </c>
       <c r="E6" t="n">
-        <v>-443807.4401436291</v>
+        <v>-443904.8992696013</v>
       </c>
       <c r="F6" t="n">
-        <v>81352.59633326717</v>
+        <v>81255.13720729476</v>
       </c>
       <c r="G6" t="n">
-        <v>81352.59633326711</v>
+        <v>81255.13720729524</v>
       </c>
       <c r="H6" t="n">
-        <v>81352.59633326709</v>
+        <v>81255.13720729492</v>
       </c>
       <c r="I6" t="n">
-        <v>81352.59633326673</v>
+        <v>81255.13720729497</v>
       </c>
       <c r="J6" t="n">
-        <v>-95070.62285932558</v>
+        <v>-95168.08198529801</v>
       </c>
       <c r="K6" t="n">
-        <v>22281.02473849968</v>
+        <v>22262.53100056536</v>
       </c>
       <c r="L6" t="n">
-        <v>52609.03501698763</v>
+        <v>52609.03501698769</v>
       </c>
       <c r="M6" t="n">
-        <v>-71849.0734159826</v>
+        <v>-71849.07341598283</v>
       </c>
       <c r="N6" t="n">
-        <v>62951.94181785449</v>
+        <v>62951.94181785452</v>
       </c>
       <c r="O6" t="n">
-        <v>62951.94181785449</v>
+        <v>62951.94181785455</v>
       </c>
       <c r="P6" t="n">
-        <v>18789.33651500885</v>
+        <v>18789.33651500886</v>
       </c>
     </row>
   </sheetData>
@@ -26713,19 +26713,19 @@
         <v>55.20325662855704</v>
       </c>
       <c r="L2" t="n">
+        <v>68.13189012964065</v>
+      </c>
+      <c r="M2" t="n">
+        <v>68.13189012964065</v>
+      </c>
+      <c r="N2" t="n">
         <v>68.13189012964067</v>
       </c>
-      <c r="M2" t="n">
+      <c r="O2" t="n">
+        <v>68.13189012964062</v>
+      </c>
+      <c r="P2" t="n">
         <v>68.13189012964067</v>
-      </c>
-      <c r="N2" t="n">
-        <v>68.13189012964068</v>
-      </c>
-      <c r="O2" t="n">
-        <v>68.13189012964067</v>
-      </c>
-      <c r="P2" t="n">
-        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="3">
@@ -26735,34 +26735,34 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>377.7436642170866</v>
+      </c>
+      <c r="C3" t="n">
         <v>377.7436642170867</v>
-      </c>
-      <c r="C3" t="n">
-        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541001</v>
+        <v>830.3824054541006</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541001</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541006</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="L3" t="n">
         <v>830.3824054541003</v>
@@ -26774,7 +26774,7 @@
         <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="P3" t="n">
         <v>830.3824054541002</v>
@@ -26929,25 +26929,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>5.821369145299292e-14</v>
       </c>
       <c r="K2" t="n">
+        <v>55.203256628557</v>
+      </c>
+      <c r="L2" t="n">
+        <v>12.92863350108361</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
         <v>55.20325662855704</v>
-      </c>
-      <c r="L2" t="n">
-        <v>12.92863350108362</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>55.20325662855703</v>
       </c>
     </row>
     <row r="3">
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,10 +26966,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370136</v>
+        <v>452.6387412370137</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26978,7 +26978,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27166,10 +27166,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>5.821369145299292e-14</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855704</v>
+        <v>55.203256628557</v>
       </c>
     </row>
     <row r="3">
@@ -27379,25 +27379,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>224.8973412541356</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>294.8584434936579</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,10 +27424,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27436,7 +27436,7 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -27445,7 +27445,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27537,7 +27537,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27549,16 +27549,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>72.1995826492944</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,13 +27579,13 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
@@ -27594,7 +27594,7 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>144.3144231515637</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27622,19 +27622,19 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>393.2131402174618</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,16 +27661,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>220.4391323466743</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27679,10 +27679,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27774,7 +27774,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27789,13 +27789,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>101.8393936825969</v>
+        <v>0.01814586100945803</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27828,7 +27828,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27840,7 +27840,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>250.1541092185948</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,28 +27898,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>156.1788006500072</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28017,16 +28017,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>128.0571403890127</v>
+        <v>103.4497100063674</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -28053,7 +28053,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
@@ -28074,10 +28074,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28324,7 +28324,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>-1.350599632132798e-12</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -28612,7 +28612,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -29284,7 +29284,7 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="38">
@@ -30235,7 +30235,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="41">
@@ -30508,7 +30508,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>3.979039320256561e-13</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
   </sheetData>
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31282,19 +31282,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31309,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31434,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31458,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31513,13 +31513,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31537,22 +31537,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S8" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I9" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31625,16 +31625,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31671,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,13 +31695,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
@@ -31710,7 +31710,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31750,16 +31750,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31768,7 +31768,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31777,7 +31777,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31786,7 +31786,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31829,7 +31829,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31838,7 +31838,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
@@ -31847,10 +31847,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O12" t="n">
         <v>424.9599466855526</v>
@@ -31865,10 +31865,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31929,7 +31929,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31941,16 +31941,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961206</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041487</v>
+        <v>424.634194604149</v>
       </c>
       <c r="L14" t="n">
-        <v>526.7962671304439</v>
+        <v>526.7962671304442</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565521</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946995</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647498</v>
       </c>
       <c r="R14" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446479</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104652</v>
       </c>
       <c r="T14" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562945</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H15" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127067</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358984</v>
+        <v>387.8120847358987</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813464</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855525</v>
+        <v>424.9599466855528</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458551</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R15" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677466</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361488</v>
+        <v>7.199258779361493</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680332</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H16" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I16" t="n">
-        <v>45.03122946298629</v>
+        <v>45.03122946298632</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K16" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L16" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M16" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N16" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263752</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P16" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469074</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337673</v>
       </c>
       <c r="S16" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351819</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444943</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L17" t="n">
-        <v>526.7962671304438</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565517</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927184</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540884</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R17" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T17" t="n">
-        <v>14.61306122562943</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,46 +32303,46 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H18" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127062</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622981</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358983</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724844</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N18" t="n">
-        <v>464.536285481346</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855524</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458548</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R18" t="n">
-        <v>110.8952201095117</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677463</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361487</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32388,43 +32388,43 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.03122946298628</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K19" t="n">
-        <v>173.9719203557933</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L19" t="n">
-        <v>222.6241616196123</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M19" t="n">
-        <v>234.7259642171318</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N19" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P19" t="n">
-        <v>181.1050413469072</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337667</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S19" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892243</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351812</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L20" t="n">
-        <v>526.7962671304439</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R20" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U20" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,46 +32540,46 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H21" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358984</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855525</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458548</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R21" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361488</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32625,7 +32625,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.03122946298629</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
@@ -32637,31 +32637,31 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N22" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P22" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S22" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
         <v>34.18755300444946</v>
@@ -32707,40 +32707,40 @@
         <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961206</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
-        <v>424.634194604149</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L23" t="n">
-        <v>526.7962671304442</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565521</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946995</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647498</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R23" t="n">
-        <v>209.6945076446479</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104652</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T23" t="n">
-        <v>14.61306122562945</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U23" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32783,7 +32783,7 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127067</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J24" t="n">
         <v>168.7478056215734</v>
@@ -32792,19 +32792,19 @@
         <v>288.4168775622983</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358987</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813464</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855528</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P24" t="n">
-        <v>341.0678223458551</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q24" t="n">
         <v>227.9948068710957</v>
@@ -32813,13 +32813,13 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677466</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361493</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1175069441680332</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32856,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H25" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.03122946298632</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K25" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L25" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
         <v>234.725964217132</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263752</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P25" t="n">
-        <v>181.1050413469074</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
         <v>125.3877432235692</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337673</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S25" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351819</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32938,7 +32938,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I26" t="n">
         <v>128.6967545176652</v>
@@ -32947,31 +32947,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L26" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P26" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R26" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33020,31 +33020,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J27" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P27" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R27" t="n">
         <v>110.8952201095118</v>
@@ -33099,7 +33099,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
@@ -33111,7 +33111,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M28" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N28" t="n">
         <v>229.1447054263751</v>
@@ -33123,19 +33123,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R28" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33175,7 +33175,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I29" t="n">
         <v>128.6967545176652</v>
@@ -33184,31 +33184,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L29" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P29" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R29" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33257,31 +33257,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J30" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P30" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R30" t="n">
         <v>110.8952201095118</v>
@@ -33336,7 +33336,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I31" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
@@ -33348,7 +33348,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M31" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N31" t="n">
         <v>229.1447054263751</v>
@@ -33360,19 +33360,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R31" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -34120,16 +34120,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34138,7 +34138,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34147,7 +34147,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34156,7 +34156,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34199,7 +34199,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34208,7 +34208,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34217,10 +34217,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34235,10 +34235,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34299,7 +34299,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34311,16 +34311,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,25 +34775,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047522</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
-        <v>410.005506727916</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34933,19 +34933,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35024,16 +35024,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>296.2227415328939</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35185,10 +35185,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35261,16 +35261,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,7 +35331,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35346,7 +35346,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35410,13 +35410,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35431,7 +35431,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35492,22 +35492,22 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560243</v>
+        <v>429.2814066296115</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P12" t="n">
-        <v>495.5025975092001</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q12" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,10 +35565,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35580,13 +35580,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303329</v>
+        <v>528.6897561303332</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109074</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221119</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502047</v>
+        <v>350.499584150205</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349805</v>
+        <v>59.82538970349819</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560242</v>
+        <v>249.2577049560245</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504661</v>
+        <v>310.4243770504665</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980127</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P15" t="n">
-        <v>495.5025975092005</v>
+        <v>495.5025975091989</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.5077701655655</v>
+        <v>12.50777016556557</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056038</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206028</v>
+        <v>236.237351520603</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118009</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187472</v>
+        <v>39.2256999718748</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303329</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
-        <v>708.691066710907</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221115</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081116</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O17" t="n">
-        <v>713.154607095147</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109121</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349802</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490663</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>150.5754385879391</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L18" t="n">
-        <v>462.5180961366883</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M18" t="n">
-        <v>776.129440800466</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980127</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O18" t="n">
-        <v>282.363702241108</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315245</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209231</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556549</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K19" t="n">
         <v>151.7024285299105</v>
@@ -36048,19 +36048,19 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M19" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N19" t="n">
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P19" t="n">
         <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.2256999718747</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303329</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081117</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36200,22 +36200,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560242</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504661</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980127</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>495.5025975092005</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.5077701655655</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K22" t="n">
         <v>151.7024285299105</v>
@@ -36285,19 +36285,19 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M22" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P22" t="n">
         <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187472</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,31 +36355,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>271.3780219415081</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303332</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109074</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221119</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081121</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.499584150205</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349819</v>
+        <v>59.82538970349674</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953156</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
         <v>415.0406756005179</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560245</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504665</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>495.5025975091989</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209233</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,28 +36513,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556557</v>
+        <v>12.50777016556549</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M25" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056038</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.237351520603</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118009</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.2256999718748</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36598,25 +36598,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N26" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R26" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349674</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,13 +36674,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N27" t="n">
         <v>333.1945733980129</v>
@@ -36689,13 +36689,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>484.7652115523311</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,19 +36750,19 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K28" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M28" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O28" t="n">
         <v>236.2373515206029</v>
@@ -36771,7 +36771,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36835,25 +36835,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N29" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349674</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,13 +36911,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N30" t="n">
         <v>333.1945733980129</v>
@@ -36926,13 +36926,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>484.7652115523311</v>
+        <v>484.7652115523309</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
-        <v>10.73738595686865</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>67.71102679412257</v>
+        <v>67.71102679412259</v>
       </c>
       <c r="K31" t="n">
         <v>206.9056851584676</v>
@@ -37002,13 +37002,13 @@
         <v>328.4801344341607</v>
       </c>
       <c r="O31" t="n">
-        <v>291.4406081491599</v>
+        <v>291.44060814916</v>
       </c>
       <c r="P31" t="n">
-        <v>233.5868572403578</v>
+        <v>233.5868572403579</v>
       </c>
       <c r="Q31" t="n">
-        <v>94.4289566004318</v>
+        <v>94.42895660043182</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37090,7 +37090,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37163,13 +37163,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>484.7652115523311</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K34" t="n">
         <v>219.8343186595512</v>
@@ -37242,7 +37242,7 @@
         <v>304.3692416502436</v>
       </c>
       <c r="P34" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q34" t="n">
         <v>107.3575901015154</v>
@@ -37312,10 +37312,10 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N35" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081129</v>
       </c>
       <c r="O35" t="n">
         <v>713.1546070951472</v>
@@ -37400,13 +37400,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>484.7652115523311</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K37" t="n">
         <v>219.8343186595512</v>
@@ -37479,7 +37479,7 @@
         <v>304.3692416502436</v>
       </c>
       <c r="P37" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q37" t="n">
         <v>107.3575901015154</v>
@@ -37619,28 +37619,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>720.1247453734244</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N39" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O39" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q39" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K40" t="n">
         <v>219.8343186595512</v>
@@ -37780,13 +37780,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37801,7 +37801,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37865,22 +37865,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>484.7652115523313</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520616</v>
       </c>
       <c r="K43" t="n">
         <v>219.8343186595512</v>
@@ -38023,7 +38023,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221127</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38111,13 +38111,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>484.7652115523313</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.63966029520617</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K46" t="n">
         <v>219.8343186595512</v>
@@ -38184,7 +38184,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N46" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O46" t="n">
         <v>304.3692416502435</v>
